--- a/Dashboard/excelfiles/professors_gender.xlsx
+++ b/Dashboard/excelfiles/professors_gender.xlsx
@@ -462,15 +462,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1849</t>
+          <t>1511</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -480,10 +480,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1514</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -492,10 +498,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1517</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -504,22 +516,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1523</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Vrouw</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1526</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -528,10 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1527</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -540,10 +570,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1530</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -552,10 +588,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1534</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -564,22 +606,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1536</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Vrouw</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1537</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -588,10 +642,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1538</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -600,10 +660,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1539</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -612,10 +678,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1540</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -626,8 +698,14 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1542</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -636,10 +714,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1543</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -648,10 +732,16 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1544</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -660,10 +750,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1545</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -672,10 +768,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1546</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -684,10 +786,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1547</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -696,10 +804,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1549</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -708,22 +822,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1550</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Vrouw</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>2</v>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1554</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -732,10 +858,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1558</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -744,22 +876,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1560</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Vrouw</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1561</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -768,10 +912,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1563</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -780,22 +930,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1564</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Vrouw</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1565</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -804,10 +966,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1566</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -816,10 +984,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1568</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -828,22 +1002,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19</v>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1569</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Vrouw</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1570</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -852,10 +1038,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1571</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -864,10 +1056,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>14</v>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1572</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -878,8 +1076,14 @@
       <c r="B36" t="n">
         <v>2</v>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1573</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -888,10 +1092,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1574</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -900,10 +1110,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1575</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -912,10 +1128,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1576</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -924,10 +1146,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1577</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -936,10 +1164,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>13</v>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1579</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -948,10 +1182,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5</v>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1580</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -960,10 +1200,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6</v>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1581</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -972,10 +1218,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>9</v>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1583</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -986,8 +1238,14 @@
       <c r="B45" t="n">
         <v>2</v>
       </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1584</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -996,10 +1254,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1586</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1008,22 +1272,34 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>15</v>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1588</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Vrouw</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1032,10 +1308,16 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2</v>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1591</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1044,10 +1326,16 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1592</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1056,10 +1344,16 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>15</v>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1596</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1068,10 +1362,16 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1597</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1080,10 +1380,16 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1598</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1092,22 +1398,34 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>11</v>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1600</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Vrouw</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>1</v>
       </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1603</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1116,10 +1434,16 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>12</v>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1604</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1130,8 +1454,14 @@
       <c r="B57" t="n">
         <v>1</v>
       </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1606</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1140,10 +1470,16 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>10</v>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1608</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1154,8 +1490,14 @@
       <c r="B59" t="n">
         <v>1</v>
       </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1609</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1164,10 +1506,16 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1610</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1176,10 +1524,16 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>16</v>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1611</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1188,10 +1542,16 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>3</v>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1612</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1200,22 +1560,34 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>12</v>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1614</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Vrouw</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1615</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1224,10 +1596,16 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>5</v>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1617</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1236,10 +1614,16 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1619</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1248,10 +1632,16 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1620</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1260,10 +1650,16 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
-      </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1622</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1272,10 +1668,16 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>8</v>
-      </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1623</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1284,10 +1686,16 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>7</v>
-      </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1625</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1296,10 +1704,16 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>5</v>
-      </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1626</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1308,10 +1722,16 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
-      </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1631</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1320,10 +1740,16 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2</v>
-      </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1332,22 +1758,34 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>7</v>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1633</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Vrouw</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1634</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1356,10 +1794,16 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>15</v>
-      </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1635</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1368,10 +1812,16 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>5</v>
-      </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1636</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1380,10 +1830,16 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
-      </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1640</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1392,10 +1848,16 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>4</v>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1642</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1404,10 +1866,16 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
-      </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1643</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1418,8 +1886,14 @@
       <c r="B81" t="n">
         <v>4</v>
       </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1644</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1428,22 +1902,34 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>19</v>
-      </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>1645</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>vrouw</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1646</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1454,8 +1940,14 @@
       <c r="B84" t="n">
         <v>3</v>
       </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1647</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1464,10 +1956,16 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
-      </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>1648</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1476,10 +1974,16 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>5</v>
-      </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>1649</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1488,10 +1992,16 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>13</v>
-      </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1650</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1502,8 +2012,14 @@
       <c r="B88" t="n">
         <v>1</v>
       </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>1651</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1512,22 +2028,34 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>10</v>
-      </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1652</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Vrouw</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>1</v>
       </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1653</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1536,10 +2064,16 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
-      </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>1656</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1548,10 +2082,16 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>4</v>
-      </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1658</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1560,10 +2100,16 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2</v>
-      </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>1659</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1572,10 +2118,16 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
-      </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>1663</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1584,10 +2136,16 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
-      </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>1666</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1596,10 +2154,16 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
-      </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>1667</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1608,10 +2172,16 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>8</v>
-      </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>1668</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1620,10 +2190,16 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>11</v>
-      </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>1671</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1632,10 +2208,16 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>5</v>
-      </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>1677</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1644,10 +2226,16 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
-      </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>1679</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1658,8 +2246,14 @@
       <c r="B101" t="n">
         <v>1</v>
       </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>1685</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1670,8 +2264,14 @@
       <c r="B102" t="n">
         <v>2</v>
       </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>1686</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1680,10 +2280,16 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2</v>
-      </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>1688</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1694,8 +2300,14 @@
       <c r="B104" t="n">
         <v>1</v>
       </c>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>1692</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -1704,10 +2316,16 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>3</v>
-      </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>1693</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -1716,22 +2334,34 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>21</v>
-      </c>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>1695</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Vrouw</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>1</v>
       </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>1696</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -1740,10 +2370,16 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2</v>
-      </c>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>1697</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -1752,10 +2388,16 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>8</v>
-      </c>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>1698</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -1764,10 +2406,16 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>3</v>
-      </c>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>1703</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -1776,10 +2424,16 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2</v>
-      </c>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>1704</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -1790,8 +2444,14 @@
       <c r="B112" t="n">
         <v>1</v>
       </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>1705</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -1800,10 +2460,16 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>6</v>
-      </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>1708</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -1812,10 +2478,16 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>4</v>
-      </c>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>1709</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -1824,10 +2496,16 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>6</v>
-      </c>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>1711</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -1836,10 +2514,16 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
-      </c>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>1712</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -1848,10 +2532,16 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>14</v>
-      </c>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>1713</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -1862,8 +2552,14 @@
       <c r="B118" t="n">
         <v>2</v>
       </c>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>1715</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -1872,10 +2568,16 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2</v>
-      </c>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>1716</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -1884,10 +2586,16 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>4</v>
-      </c>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>1723</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -1896,10 +2604,16 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>3</v>
-      </c>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>1724</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -1910,8 +2624,14 @@
       <c r="B122" t="n">
         <v>1</v>
       </c>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>1726</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -1920,10 +2640,16 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>3</v>
-      </c>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>1727</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -1932,10 +2658,16 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
-      </c>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>1729</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -1946,8 +2678,14 @@
       <c r="B125" t="n">
         <v>1</v>
       </c>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>1730</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -1956,10 +2694,16 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2</v>
-      </c>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>1731</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -1968,10 +2712,16 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2</v>
-      </c>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>1735</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -1980,10 +2730,16 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>3</v>
-      </c>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>1738</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -1992,10 +2748,16 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>6</v>
-      </c>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>1739</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -2004,10 +2766,16 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>2</v>
-      </c>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>1740</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2016,10 +2784,16 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>14</v>
-      </c>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>1741</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2028,10 +2802,16 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
-      </c>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>1742</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2040,10 +2820,16 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
-      </c>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>1746</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2054,8 +2840,14 @@
       <c r="B134" t="n">
         <v>3</v>
       </c>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>1749</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -2064,10 +2856,16 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>6</v>
-      </c>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>1753</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2076,10 +2874,16 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
-      </c>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>1754</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2090,8 +2894,14 @@
       <c r="B137" t="n">
         <v>3</v>
       </c>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>1757</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2100,22 +2910,34 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>17</v>
-      </c>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>1758</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Vrouw</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
-      </c>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>1759</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -2124,10 +2946,16 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>3</v>
-      </c>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>1761</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -2136,10 +2964,16 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>6</v>
-      </c>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>1763</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -2148,10 +2982,16 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>4</v>
-      </c>
-      <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>1764</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2160,10 +3000,16 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
-      </c>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>1765</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2172,10 +3018,16 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>2</v>
-      </c>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>1767</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2184,10 +3036,16 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
-      </c>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>1770</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -2196,10 +3054,16 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>2</v>
-      </c>
-      <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>1771</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -2208,10 +3072,16 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>4</v>
-      </c>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>1772</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -2222,8 +3092,14 @@
       <c r="B148" t="n">
         <v>2</v>
       </c>
-      <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr"/>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>1773</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2232,10 +3108,16 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>9</v>
-      </c>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>1774</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -2244,10 +3126,16 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>4</v>
-      </c>
-      <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>1776</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2256,10 +3144,16 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>12</v>
-      </c>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>1777</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -2268,10 +3162,16 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>2</v>
-      </c>
-      <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>1778</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -2280,10 +3180,16 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>9</v>
-      </c>
-      <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>1779</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -2292,10 +3198,16 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>2</v>
-      </c>
-      <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>1783</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -2304,10 +3216,16 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>2</v>
-      </c>
-      <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>1784</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -2316,10 +3234,16 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>3</v>
-      </c>
-      <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>1786</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -2330,8 +3254,14 @@
       <c r="B157" t="n">
         <v>1</v>
       </c>
-      <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr"/>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>1787</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -2340,10 +3270,16 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>13</v>
-      </c>
-      <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>1788</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -2352,10 +3288,16 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
-      </c>
-      <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>1789</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -2366,8 +3308,14 @@
       <c r="B160" t="n">
         <v>1</v>
       </c>
-      <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr"/>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>1792</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -2376,10 +3324,16 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>6</v>
-      </c>
-      <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>1793</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -2388,10 +3342,16 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
-      </c>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>1794</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -2400,10 +3360,16 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>4</v>
-      </c>
-      <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>1795</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -2414,8 +3380,14 @@
       <c r="B164" t="n">
         <v>1</v>
       </c>
-      <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>1796</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -2424,10 +3396,16 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>8</v>
-      </c>
-      <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>1797</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -2436,10 +3414,16 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>5</v>
-      </c>
-      <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>1798</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -2448,10 +3432,16 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>4</v>
-      </c>
-      <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>1801</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -2460,10 +3450,16 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>2</v>
-      </c>
-      <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>1802</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -2472,10 +3468,16 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
-      </c>
-      <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>1804</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -2486,8 +3488,14 @@
       <c r="B170" t="n">
         <v>4</v>
       </c>
-      <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr"/>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>1805</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -2496,10 +3504,16 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>2</v>
-      </c>
-      <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>1806</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -2508,10 +3522,16 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>2</v>
-      </c>
-      <c r="C172" t="inlineStr"/>
-      <c r="D172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>1807</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -2520,10 +3540,16 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>2</v>
-      </c>
-      <c r="C173" t="inlineStr"/>
-      <c r="D173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>1808</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -2532,10 +3558,16 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
-      </c>
-      <c r="C174" t="inlineStr"/>
-      <c r="D174" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>1811</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -2544,10 +3576,16 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
-      </c>
-      <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>1812</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -2556,10 +3594,16 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>10</v>
-      </c>
-      <c r="C176" t="inlineStr"/>
-      <c r="D176" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>1813</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -2570,8 +3614,14 @@
       <c r="B177" t="n">
         <v>3</v>
       </c>
-      <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr"/>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>1814</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -2580,10 +3630,16 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>4</v>
-      </c>
-      <c r="C178" t="inlineStr"/>
-      <c r="D178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>1815</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -2592,10 +3648,16 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>5</v>
-      </c>
-      <c r="C179" t="inlineStr"/>
-      <c r="D179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>1816</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -2606,8 +3668,14 @@
       <c r="B180" t="n">
         <v>1</v>
       </c>
-      <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr"/>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>1817</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -2618,8 +3686,14 @@
       <c r="B181" t="n">
         <v>2</v>
       </c>
-      <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr"/>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>1818</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -2628,10 +3702,16 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>2</v>
-      </c>
-      <c r="C182" t="inlineStr"/>
-      <c r="D182" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>1820</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -2642,8 +3722,14 @@
       <c r="B183" t="n">
         <v>2</v>
       </c>
-      <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr"/>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>1822</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -2654,8 +3740,14 @@
       <c r="B184" t="n">
         <v>4</v>
       </c>
-      <c r="C184" t="inlineStr"/>
-      <c r="D184" t="inlineStr"/>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>1823</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -2664,10 +3756,16 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>2</v>
-      </c>
-      <c r="C185" t="inlineStr"/>
-      <c r="D185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>1826</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -2676,10 +3774,16 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>5</v>
-      </c>
-      <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>1827</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -2688,10 +3792,16 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
-      </c>
-      <c r="C187" t="inlineStr"/>
-      <c r="D187" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>1828</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -2700,10 +3810,16 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
-      </c>
-      <c r="C188" t="inlineStr"/>
-      <c r="D188" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>1829</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -2714,8 +3830,14 @@
       <c r="B189" t="n">
         <v>2</v>
       </c>
-      <c r="C189" t="inlineStr"/>
-      <c r="D189" t="inlineStr"/>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>1830</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -2726,8 +3848,14 @@
       <c r="B190" t="n">
         <v>2</v>
       </c>
-      <c r="C190" t="inlineStr"/>
-      <c r="D190" t="inlineStr"/>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>1831</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -2736,10 +3864,16 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
-      </c>
-      <c r="C191" t="inlineStr"/>
-      <c r="D191" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>1832</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -2748,10 +3882,16 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>4</v>
-      </c>
-      <c r="C192" t="inlineStr"/>
-      <c r="D192" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>1833</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -2760,10 +3900,16 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>4</v>
-      </c>
-      <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>1834</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -2772,10 +3918,16 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
-      </c>
-      <c r="C194" t="inlineStr"/>
-      <c r="D194" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>1835</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -2786,8 +3938,14 @@
       <c r="B195" t="n">
         <v>2</v>
       </c>
-      <c r="C195" t="inlineStr"/>
-      <c r="D195" t="inlineStr"/>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>1836</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -2796,10 +3954,16 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
-      </c>
-      <c r="C196" t="inlineStr"/>
-      <c r="D196" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>1837</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -2808,10 +3972,16 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>9</v>
-      </c>
-      <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>1838</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -2820,10 +3990,16 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>3</v>
-      </c>
-      <c r="C198" t="inlineStr"/>
-      <c r="D198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>1839</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -2832,10 +4008,16 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>4</v>
-      </c>
-      <c r="C199" t="inlineStr"/>
-      <c r="D199" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>1840</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -2846,8 +4028,14 @@
       <c r="B200" t="n">
         <v>2</v>
       </c>
-      <c r="C200" t="inlineStr"/>
-      <c r="D200" t="inlineStr"/>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>1841</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -2856,10 +4044,16 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
-      </c>
-      <c r="C201" t="inlineStr"/>
-      <c r="D201" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>1842</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -2868,10 +4062,16 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>2</v>
-      </c>
-      <c r="C202" t="inlineStr"/>
-      <c r="D202" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>1843</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -2882,8 +4082,14 @@
       <c r="B203" t="n">
         <v>3</v>
       </c>
-      <c r="C203" t="inlineStr"/>
-      <c r="D203" t="inlineStr"/>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>1844</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -2892,10 +4098,16 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>3</v>
-      </c>
-      <c r="C204" t="inlineStr"/>
-      <c r="D204" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>1845</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -2906,8 +4118,14 @@
       <c r="B205" t="n">
         <v>1</v>
       </c>
-      <c r="C205" t="inlineStr"/>
-      <c r="D205" t="inlineStr"/>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>1846</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -2916,10 +4134,16 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>2</v>
-      </c>
-      <c r="C206" t="inlineStr"/>
-      <c r="D206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>1847</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -2930,8 +4154,14 @@
       <c r="B207" t="n">
         <v>2</v>
       </c>
-      <c r="C207" t="inlineStr"/>
-      <c r="D207" t="inlineStr"/>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>1848</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -2940,10 +4170,16 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>2</v>
-      </c>
-      <c r="C208" t="inlineStr"/>
-      <c r="D208" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>1849</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -2952,10 +4188,16 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>8</v>
-      </c>
-      <c r="C209" t="inlineStr"/>
-      <c r="D209" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>1850</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -2964,10 +4206,16 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>2</v>
-      </c>
-      <c r="C210" t="inlineStr"/>
-      <c r="D210" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>1851</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -2976,10 +4224,16 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>4</v>
-      </c>
-      <c r="C211" t="inlineStr"/>
-      <c r="D211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>1852</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -2988,10 +4242,16 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
-      </c>
-      <c r="C212" t="inlineStr"/>
-      <c r="D212" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>1853</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -3000,10 +4260,16 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>2</v>
-      </c>
-      <c r="C213" t="inlineStr"/>
-      <c r="D213" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>1854</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -3012,10 +4278,16 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
-      </c>
-      <c r="C214" t="inlineStr"/>
-      <c r="D214" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>1855</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -3024,10 +4296,16 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>2</v>
-      </c>
-      <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>1856</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -3036,10 +4314,16 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>2</v>
-      </c>
-      <c r="C216" t="inlineStr"/>
-      <c r="D216" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>1857</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -3048,10 +4332,16 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>4</v>
-      </c>
-      <c r="C217" t="inlineStr"/>
-      <c r="D217" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>1858</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -3060,10 +4350,16 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
-      </c>
-      <c r="C218" t="inlineStr"/>
-      <c r="D218" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>1859</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -3072,10 +4368,16 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>2</v>
-      </c>
-      <c r="C219" t="inlineStr"/>
-      <c r="D219" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>1860</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -3084,10 +4386,16 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>6</v>
-      </c>
-      <c r="C220" t="inlineStr"/>
-      <c r="D220" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>1861</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -3096,10 +4404,16 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>1</v>
-      </c>
-      <c r="C221" t="inlineStr"/>
-      <c r="D221" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>1862</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -3108,10 +4422,16 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>3</v>
-      </c>
-      <c r="C222" t="inlineStr"/>
-      <c r="D222" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>1863</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -3120,10 +4440,16 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>5</v>
-      </c>
-      <c r="C223" t="inlineStr"/>
-      <c r="D223" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>1864</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -3134,8 +4460,14 @@
       <c r="B224" t="n">
         <v>3</v>
       </c>
-      <c r="C224" t="inlineStr"/>
-      <c r="D224" t="inlineStr"/>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>1865</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -3144,10 +4476,16 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
-      </c>
-      <c r="C225" t="inlineStr"/>
-      <c r="D225" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>1866</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -3156,10 +4494,16 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
-      </c>
-      <c r="C226" t="inlineStr"/>
-      <c r="D226" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>1867</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -3168,10 +4512,16 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>1</v>
-      </c>
-      <c r="C227" t="inlineStr"/>
-      <c r="D227" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>1868</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -3182,8 +4532,14 @@
       <c r="B228" t="n">
         <v>3</v>
       </c>
-      <c r="C228" t="inlineStr"/>
-      <c r="D228" t="inlineStr"/>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>1869</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -3192,10 +4548,16 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>3</v>
-      </c>
-      <c r="C229" t="inlineStr"/>
-      <c r="D229" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>1870</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -3204,10 +4566,16 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>9</v>
-      </c>
-      <c r="C230" t="inlineStr"/>
-      <c r="D230" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>1871</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -3216,10 +4584,16 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>2</v>
-      </c>
-      <c r="C231" t="inlineStr"/>
-      <c r="D231" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>1872</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -3228,10 +4602,16 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>1</v>
-      </c>
-      <c r="C232" t="inlineStr"/>
-      <c r="D232" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>1873</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -3240,10 +4620,16 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>6</v>
-      </c>
-      <c r="C233" t="inlineStr"/>
-      <c r="D233" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>1874</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -3252,10 +4638,16 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>4</v>
-      </c>
-      <c r="C234" t="inlineStr"/>
-      <c r="D234" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>1875</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -3264,10 +4656,16 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>2</v>
-      </c>
-      <c r="C235" t="inlineStr"/>
-      <c r="D235" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>1876</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -3276,10 +4674,16 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>1</v>
-      </c>
-      <c r="C236" t="inlineStr"/>
-      <c r="D236" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>1877</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -3288,10 +4692,16 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>3</v>
-      </c>
-      <c r="C237" t="inlineStr"/>
-      <c r="D237" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>1878</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -3300,22 +4710,34 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>1</v>
-      </c>
-      <c r="C238" t="inlineStr"/>
-      <c r="D238" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>1879</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Vrouw</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>1</v>
-      </c>
-      <c r="C239" t="inlineStr"/>
-      <c r="D239" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>1880</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -3324,10 +4746,16 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
-      </c>
-      <c r="C240" t="inlineStr"/>
-      <c r="D240" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>1881</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -3336,10 +4764,16 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
-      </c>
-      <c r="C241" t="inlineStr"/>
-      <c r="D241" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>1882</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -3348,10 +4782,16 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>1</v>
-      </c>
-      <c r="C242" t="inlineStr"/>
-      <c r="D242" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>1883</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -3360,10 +4800,16 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>1</v>
-      </c>
-      <c r="C243" t="inlineStr"/>
-      <c r="D243" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>1884</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -3372,10 +4818,16 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
-      </c>
-      <c r="C244" t="inlineStr"/>
-      <c r="D244" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>1885</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -3384,10 +4836,16 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>1</v>
-      </c>
-      <c r="C245" t="inlineStr"/>
-      <c r="D245" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>1886</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -3396,10 +4854,16 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>1</v>
-      </c>
-      <c r="C246" t="inlineStr"/>
-      <c r="D246" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>1887</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -3408,10 +4872,16 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>2</v>
-      </c>
-      <c r="C247" t="inlineStr"/>
-      <c r="D247" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>1888</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -3420,10 +4890,16 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>1</v>
-      </c>
-      <c r="C248" t="inlineStr"/>
-      <c r="D248" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>1889</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -3432,10 +4908,16 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
-      </c>
-      <c r="C249" t="inlineStr"/>
-      <c r="D249" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>1890</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -3444,10 +4926,16 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>2</v>
-      </c>
-      <c r="C250" t="inlineStr"/>
-      <c r="D250" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>1891</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -3456,10 +4944,16 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>2</v>
-      </c>
-      <c r="C251" t="inlineStr"/>
-      <c r="D251" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>1892</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -3468,10 +4962,16 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>3</v>
-      </c>
-      <c r="C252" t="inlineStr"/>
-      <c r="D252" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>1893</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -3480,22 +4980,34 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>1</v>
-      </c>
-      <c r="C253" t="inlineStr"/>
-      <c r="D253" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>1894</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B254" t="n">
         <v>1</v>
       </c>
-      <c r="C254" t="inlineStr"/>
-      <c r="D254" t="inlineStr"/>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>1894</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -3504,22 +5016,34 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>1</v>
-      </c>
-      <c r="C255" t="inlineStr"/>
-      <c r="D255" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>1895</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>3</v>
-      </c>
-      <c r="C256" t="inlineStr"/>
-      <c r="D256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>1895</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -3528,10 +5052,16 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>3</v>
-      </c>
-      <c r="C257" t="inlineStr"/>
-      <c r="D257" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>1896</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -3540,10 +5070,16 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
-      </c>
-      <c r="C258" t="inlineStr"/>
-      <c r="D258" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>1897</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -3552,10 +5088,16 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
-      </c>
-      <c r="C259" t="inlineStr"/>
-      <c r="D259" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>1898</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -3564,10 +5106,16 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>3</v>
-      </c>
-      <c r="C260" t="inlineStr"/>
-      <c r="D260" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>1899</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -3576,10 +5124,16 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>1</v>
-      </c>
-      <c r="C261" t="inlineStr"/>
-      <c r="D261" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>1900</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -3588,10 +5142,16 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>2</v>
-      </c>
-      <c r="C262" t="inlineStr"/>
-      <c r="D262" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>1901</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -3600,10 +5160,16 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>3</v>
-      </c>
-      <c r="C263" t="inlineStr"/>
-      <c r="D263" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>1902</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -3612,10 +5178,16 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>1</v>
-      </c>
-      <c r="C264" t="inlineStr"/>
-      <c r="D264" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>1903</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -3624,10 +5196,16 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>1</v>
-      </c>
-      <c r="C265" t="inlineStr"/>
-      <c r="D265" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>1904</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -3636,22 +5214,34 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>1</v>
-      </c>
-      <c r="C266" t="inlineStr"/>
-      <c r="D266" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>1905</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>2</v>
-      </c>
-      <c r="C267" t="inlineStr"/>
-      <c r="D267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>1905</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -3660,10 +5250,16 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
-      </c>
-      <c r="C268" t="inlineStr"/>
-      <c r="D268" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>1906</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -3672,22 +5268,34 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>2</v>
-      </c>
-      <c r="C269" t="inlineStr"/>
-      <c r="D269" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>1907</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B270" t="n">
         <v>1</v>
       </c>
-      <c r="C270" t="inlineStr"/>
-      <c r="D270" t="inlineStr"/>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>1907</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -3696,10 +5304,16 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>1</v>
-      </c>
-      <c r="C271" t="inlineStr"/>
-      <c r="D271" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>1908</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -3708,10 +5322,16 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>1</v>
-      </c>
-      <c r="C272" t="inlineStr"/>
-      <c r="D272" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>1909</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -3720,10 +5340,16 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>1</v>
-      </c>
-      <c r="C273" t="inlineStr"/>
-      <c r="D273" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>1910</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -3732,10 +5358,16 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>2</v>
-      </c>
-      <c r="C274" t="inlineStr"/>
-      <c r="D274" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>1911</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -3744,10 +5376,16 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>1</v>
-      </c>
-      <c r="C275" t="inlineStr"/>
-      <c r="D275" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>1912</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -3756,10 +5394,16 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>1</v>
-      </c>
-      <c r="C276" t="inlineStr"/>
-      <c r="D276" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>1913</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -3768,22 +5412,34 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>1</v>
-      </c>
-      <c r="C277" t="inlineStr"/>
-      <c r="D277" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>1914</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>2</v>
-      </c>
-      <c r="C278" t="inlineStr"/>
-      <c r="D278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>1914</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -3792,10 +5448,16 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>2</v>
-      </c>
-      <c r="C279" t="inlineStr"/>
-      <c r="D279" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>1915</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -3804,22 +5466,34 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>2</v>
-      </c>
-      <c r="C280" t="inlineStr"/>
-      <c r="D280" t="inlineStr"/>
+        <v>19</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>1916</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>vrouw</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>3</v>
-      </c>
-      <c r="C281" t="inlineStr"/>
-      <c r="D281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>1916</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -3828,22 +5502,34 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>2</v>
-      </c>
-      <c r="C282" t="inlineStr"/>
-      <c r="D282" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>1917</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>1</v>
-      </c>
-      <c r="C283" t="inlineStr"/>
-      <c r="D283" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>1917</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -3852,10 +5538,16 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>1</v>
-      </c>
-      <c r="C284" t="inlineStr"/>
-      <c r="D284" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>1918</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -3864,10 +5556,16 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>1</v>
-      </c>
-      <c r="C285" t="inlineStr"/>
-      <c r="D285" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -3876,22 +5574,34 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>1</v>
-      </c>
-      <c r="C286" t="inlineStr"/>
-      <c r="D286" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>1</v>
-      </c>
-      <c r="C287" t="inlineStr"/>
-      <c r="D287" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -3900,22 +5610,34 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>2</v>
-      </c>
-      <c r="C288" t="inlineStr"/>
-      <c r="D288" t="inlineStr"/>
+        <v>17</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B289" t="n">
         <v>1</v>
       </c>
-      <c r="C289" t="inlineStr"/>
-      <c r="D289" t="inlineStr"/>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -3924,22 +5646,34 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>1</v>
-      </c>
-      <c r="C290" t="inlineStr"/>
-      <c r="D290" t="inlineStr"/>
+        <v>19</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>1922</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B291" t="n">
         <v>1</v>
       </c>
-      <c r="C291" t="inlineStr"/>
-      <c r="D291" t="inlineStr"/>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>1922</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -3948,22 +5682,34 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>1</v>
-      </c>
-      <c r="C292" t="inlineStr"/>
-      <c r="D292" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>1923</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B293" t="n">
         <v>1</v>
       </c>
-      <c r="C293" t="inlineStr"/>
-      <c r="D293" t="inlineStr"/>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>1923</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -3972,10 +5718,16 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1</v>
-      </c>
-      <c r="C294" t="inlineStr"/>
-      <c r="D294" t="inlineStr"/>
+        <v>24</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -3984,22 +5736,34 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>1</v>
-      </c>
-      <c r="C295" t="inlineStr"/>
-      <c r="D295" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>1925</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B296" t="n">
         <v>1</v>
       </c>
-      <c r="C296" t="inlineStr"/>
-      <c r="D296" t="inlineStr"/>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>1925</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -4008,22 +5772,34 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>1</v>
-      </c>
-      <c r="C297" t="inlineStr"/>
-      <c r="D297" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>1926</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>1</v>
-      </c>
-      <c r="C298" t="inlineStr"/>
-      <c r="D298" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>1926</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -4032,10 +5808,16 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>2</v>
-      </c>
-      <c r="C299" t="inlineStr"/>
-      <c r="D299" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>1927</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -4044,10 +5826,16 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>4</v>
-      </c>
-      <c r="C300" t="inlineStr"/>
-      <c r="D300" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -4056,10 +5844,16 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>1</v>
-      </c>
-      <c r="C301" t="inlineStr"/>
-      <c r="D301" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -4068,22 +5862,34 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>2</v>
-      </c>
-      <c r="C302" t="inlineStr"/>
-      <c r="D302" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B303" t="n">
         <v>1</v>
       </c>
-      <c r="C303" t="inlineStr"/>
-      <c r="D303" t="inlineStr"/>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -4092,10 +5898,16 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>1</v>
-      </c>
-      <c r="C304" t="inlineStr"/>
-      <c r="D304" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>1931</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -4104,10 +5916,16 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>1</v>
-      </c>
-      <c r="C305" t="inlineStr"/>
-      <c r="D305" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -4116,10 +5934,16 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>1</v>
-      </c>
-      <c r="C306" t="inlineStr"/>
-      <c r="D306" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -4128,10 +5952,16 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>1</v>
-      </c>
-      <c r="C307" t="inlineStr"/>
-      <c r="D307" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>1934</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -4140,10 +5970,16 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>3</v>
-      </c>
-      <c r="C308" t="inlineStr"/>
-      <c r="D308" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>1935</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -4152,10 +5988,16 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>1</v>
-      </c>
-      <c r="C309" t="inlineStr"/>
-      <c r="D309" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>1936</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -4164,10 +6006,16 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>1</v>
-      </c>
-      <c r="C310" t="inlineStr"/>
-      <c r="D310" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>1937</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -4176,10 +6024,16 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>1</v>
-      </c>
-      <c r="C311" t="inlineStr"/>
-      <c r="D311" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -4188,10 +6042,16 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>1</v>
-      </c>
-      <c r="C312" t="inlineStr"/>
-      <c r="D312" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>1939</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -4200,10 +6060,16 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>1</v>
-      </c>
-      <c r="C313" t="inlineStr"/>
-      <c r="D313" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -4214,8 +6080,14 @@
       <c r="B314" t="n">
         <v>1</v>
       </c>
-      <c r="C314" t="inlineStr"/>
-      <c r="D314" t="inlineStr"/>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>1941</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -4224,10 +6096,16 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>1</v>
-      </c>
-      <c r="C315" t="inlineStr"/>
-      <c r="D315" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -4236,10 +6114,16 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>1</v>
-      </c>
-      <c r="C316" t="inlineStr"/>
-      <c r="D316" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -4248,10 +6132,16 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>1</v>
-      </c>
-      <c r="C317" t="inlineStr"/>
-      <c r="D317" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -4260,10 +6150,16 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>1</v>
-      </c>
-      <c r="C318" t="inlineStr"/>
-      <c r="D318" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -4272,10 +6168,16 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>1</v>
-      </c>
-      <c r="C319" t="inlineStr"/>
-      <c r="D319" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -4286,20 +6188,32 @@
       <c r="B320" t="n">
         <v>1</v>
       </c>
-      <c r="C320" t="inlineStr"/>
-      <c r="D320" t="inlineStr"/>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B321" t="n">
         <v>1</v>
       </c>
-      <c r="C321" t="inlineStr"/>
-      <c r="D321" t="inlineStr"/>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>1948</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -4310,8 +6224,14 @@
       <c r="B322" t="n">
         <v>1</v>
       </c>
-      <c r="C322" t="inlineStr"/>
-      <c r="D322" t="inlineStr"/>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>1948</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -4322,8 +6242,14 @@
       <c r="B323" t="n">
         <v>1</v>
       </c>
-      <c r="C323" t="inlineStr"/>
-      <c r="D323" t="inlineStr"/>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>1949</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -4332,10 +6258,16 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>2</v>
-      </c>
-      <c r="C324" t="inlineStr"/>
-      <c r="D324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -4344,10 +6276,16 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>4</v>
-      </c>
-      <c r="C325" t="inlineStr"/>
-      <c r="D325" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>1951</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -4358,8 +6296,14 @@
       <c r="B326" t="n">
         <v>1</v>
       </c>
-      <c r="C326" t="inlineStr"/>
-      <c r="D326" t="inlineStr"/>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>1952</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -4370,8 +6314,14 @@
       <c r="B327" t="n">
         <v>1</v>
       </c>
-      <c r="C327" t="inlineStr"/>
-      <c r="D327" t="inlineStr"/>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>1955</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -4382,8 +6332,14 @@
       <c r="B328" t="n">
         <v>1</v>
       </c>
-      <c r="C328" t="inlineStr"/>
-      <c r="D328" t="inlineStr"/>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -4394,8 +6350,14 @@
       <c r="B329" t="n">
         <v>1</v>
       </c>
-      <c r="C329" t="inlineStr"/>
-      <c r="D329" t="inlineStr"/>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
